--- a/documents/ImportProducts_Template.xlsx
+++ b/documents/ImportProducts_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattDrouillard\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015203C0-1342-4530-B124-90BF93292BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D33EAE-C6C1-4DA7-9095-9C8B82DFFD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9AD0579-FAE8-41D4-B5A8-9D4C17882547}"/>
+    <workbookView xWindow="3825" yWindow="1800" windowWidth="21480" windowHeight="15255" xr2:uid="{F9AD0579-FAE8-41D4-B5A8-9D4C17882547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Product URL</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -442,54 +445,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3145A6FC-8DA5-4D96-A8BD-DBF989FB1973}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="1" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="7" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/documents/ImportProducts_Template.xlsx
+++ b/documents/ImportProducts_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattDrouillard\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D33EAE-C6C1-4DA7-9095-9C8B82DFFD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D32E367-7D79-471B-84CC-33A4FD6CF6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1800" windowWidth="21480" windowHeight="15255" xr2:uid="{F9AD0579-FAE8-41D4-B5A8-9D4C17882547}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9AD0579-FAE8-41D4-B5A8-9D4C17882547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Description</t>
   </si>
@@ -53,20 +50,44 @@
     <t>Image URL</t>
   </si>
   <si>
-    <t>SKU</t>
-  </si>
-  <si>
     <t>Product URL</t>
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Test Product 1</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Test Product 1 Description</t>
+  </si>
+  <si>
+    <t>Test 1 Subheading</t>
+  </si>
+  <si>
+    <t>https://www.istockphoto.com/asset-detail/assets/static/istock_global-4918a622f02f75589638.svg#istock-logo</t>
+  </si>
+  <si>
+    <t>https://www.istockphoto.com/vector/broken-robot-gm599486444-102908267</t>
+  </si>
+  <si>
+    <t>Utterances (Comma Separated)</t>
+  </si>
+  <si>
+    <t>SKU (REQUIRED)</t>
+  </si>
+  <si>
+    <t>Name (REQUIRED)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +107,14 @@
       <b/>
       <sz val="12"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,16 +152,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3145A6FC-8DA5-4D96-A8BD-DBF989FB1973}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,9 +491,11 @@
     <col min="1" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="7" width="32.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="10" width="23" customWidth="1"/>
+    <col min="6" max="6" width="100.5703125" customWidth="1"/>
+    <col min="7" max="7" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
@@ -466,55 +503,94 @@
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2">
+        <v>12345</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>2.99</v>
+      </c>
+      <c r="J2" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" location="istock-logo" xr:uid="{B17B5E80-E184-49BA-AAEA-9F2A7C5EE950}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,6 +817,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BF762F-E21C-4031-AD75-75ABE2A59010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2CFBC28-B0A4-4085-BA23-5DC4DBB85BC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="4dafc3e3-2f61-435f-93ee-93b7c576c297"/>
@@ -753,14 +837,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="7d5a4ff9-8a44-4abd-866f-0322fb4723e3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BF762F-E21C-4031-AD75-75ABE2A59010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
